--- a/Time plan Sem1.xlsx
+++ b/Time plan Sem1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>initial plan, budget &amp; contract</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>Backend programming for Examinee</t>
+  </si>
+  <si>
+    <t>Planned Total Hours</t>
+  </si>
+  <si>
+    <t>Actual Total Hours</t>
   </si>
 </sst>
 </file>
@@ -156,7 +162,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -258,11 +264,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -329,6 +346,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,10 +657,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:R32"/>
+  <dimension ref="A2:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -648,20 +668,21 @@
     <col min="2" max="2" width="40.28515625" customWidth="1"/>
     <col min="3" max="15" width="8.7109375" customWidth="1"/>
     <col min="18" max="18" width="8.85546875" style="17"/>
+    <col min="19" max="19" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
     </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>10</v>
       </c>
@@ -714,8 +735,15 @@
       <c r="R6" s="18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S6" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6">
+        <f>SUM(R8,R10,R12,R14,R16,R18,R20,R22,R24,R26)</f>
+        <v>138.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="26"/>
       <c r="C7" s="4"/>
@@ -734,8 +762,15 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="19"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="T7">
+        <f>SUM(R9,R11,R13,R15,R17,R19,R21,R23,R25,R27)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>1</v>
       </c>
@@ -764,7 +799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="12" t="s">
         <v>5</v>
@@ -791,7 +826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>2</v>
       </c>
@@ -822,7 +857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="12" t="s">
         <v>5</v>
@@ -853,7 +888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>3</v>
       </c>
@@ -910,7 +945,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="12" t="s">
         <v>5</v>
@@ -942,16 +977,24 @@
       <c r="M13" s="20">
         <v>0.5</v>
       </c>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
+      <c r="N13" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="O13" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="P13" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="Q13" s="20">
+        <v>0.5</v>
+      </c>
       <c r="R13" s="20">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>4</v>
       </c>
@@ -982,7 +1025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="12" t="s">
         <v>5</v>
@@ -1015,7 +1058,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="16" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>5</v>
       </c>
